--- a/Excels/Localization/ChineseSimplified.xlsx
+++ b/Excels/Localization/ChineseSimplified.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D126C732-A53D-48FC-AAF2-D3F5B9840D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF899124-9AF7-40C9-9888-7EF2118D3B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="5445" windowWidth="26130" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7575" yWindow="3975" windowWidth="26130" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,47 +88,6 @@
   </si>
   <si>
     <t>退出</t>
-  </si>
-  <si>
-    <t>Dialog.ConfirmButton</t>
-  </si>
-  <si>
-    <t>确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialog.CancelButton</t>
-  </si>
-  <si>
-    <t>取消</t>
-  </si>
-  <si>
-    <t>Dialog.OtherButton</t>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForceUpdate.Title</t>
-  </si>
-  <si>
-    <t>强制更新</t>
-  </si>
-  <si>
-    <t>ForceUpdate.Message</t>
-  </si>
-  <si>
-    <t>当前游戏版本过旧，是否前往更新？</t>
-  </si>
-  <si>
-    <t>ForceUpdate.UpdateButton</t>
-  </si>
-  <si>
-    <t>更新</t>
-  </si>
-  <si>
-    <t>ForceUpdate.QuitButton</t>
   </si>
   <si>
     <t>AskQuitGame.Title</t>
@@ -517,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B11" sqref="B11:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -538,10 +497,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -637,39 +596,39 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
         <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
         <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
         <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
@@ -678,62 +637,6 @@
       </c>
       <c r="D18" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Localization/ChineseSimplified.xlsx
+++ b/Excels/Localization/ChineseSimplified.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF899124-9AF7-40C9-9888-7EF2118D3B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E4C193-802F-4A40-8022-64FCCE05F468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="3975" windowWidth="26130" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="26130" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excels/Localization/ChineseSimplified.xlsx
+++ b/Excels/Localization/ChineseSimplified.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E4C193-802F-4A40-8022-64FCCE05F468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E068454F-1CCC-4DC9-87F5-E8B936710CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="26130" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,35 +33,6 @@
     <t>Game.Name</t>
   </si>
   <si>
-    <t>星际力量</t>
-  </si>
-  <si>
-    <t>Game.Description</t>
-  </si>
-  <si>
-    <t>Game Framework 演示程序</t>
-  </si>
-  <si>
-    <t>Game.Website</t>
-  </si>
-  <si>
-    <t>http://GameFramework.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game.Summary</t>
-  </si>
-  <si>
-    <t>这是一个使用 Game Framework 游戏框架制作的游戏演示项目，目的是对此游戏框架的使用方法做一些示范，供使用者参考Game.Introduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game.Introduction</t>
-  </si>
-  <si>
-    <t>Game Framework 是基于 Unity 5.3+ 引擎的游戏框架，主要对游戏开发过程中常用模块进行了封装，很大程度地规范开发过程、加快开发速度并保证产品质量</t>
-  </si>
-  <si>
     <t>Menu.StartButton</t>
   </si>
   <si>
@@ -140,6 +111,10 @@
   </si>
   <si>
     <t>#策划备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dengine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,14 +135,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -188,17 +155,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -476,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -508,22 +472,22 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -556,95 +520,60 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excels/Localization/ChineseSimplified.xlsx
+++ b/Excels/Localization/ChineseSimplified.xlsx
@@ -1,38 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E068454F-1CCC-4DC9-87F5-E8B936710CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>语言key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#策划备注</t>
+  </si>
+  <si>
+    <t>ChineseSimplified</t>
   </si>
   <si>
     <t>Game.Name</t>
   </si>
   <si>
+    <t>Dengine</t>
+  </si>
+  <si>
     <t>Menu.StartButton</t>
   </si>
   <si>
@@ -45,10 +46,6 @@
     <t>设置</t>
   </si>
   <si>
-    <t>设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Menu.AboutButton</t>
   </si>
   <si>
@@ -104,49 +101,373 @@
   </si>
   <si>
     <t>更改语言需要重启游戏</t>
-  </si>
-  <si>
-    <t>ChineseSimplified</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#策划备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dengine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -154,24 +475,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -220,7 +827,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -255,7 +862,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -429,31 +1036,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="31.375" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="137.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,119 +1063,119 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excels/Localization/ChineseSimplified.xlsx
+++ b/Excels/Localization/ChineseSimplified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Unity\Work\DEngine\Excels\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAFABF3-F5BA-461A-8CBB-FF8E9B1DE7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1B237A-B0B9-4A71-84A3-F975550183D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9315" yWindow="5250" windowWidth="26130" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>#</t>
   </si>
@@ -34,86 +34,11 @@
     <t>ChineseSimplified</t>
   </si>
   <si>
-    <t>Game.Name</t>
-  </si>
-  <si>
-    <t>Dengine</t>
-  </si>
-  <si>
-    <t>Menu.StartButton</t>
-  </si>
-  <si>
-    <t>开始</t>
-  </si>
-  <si>
-    <t>Menu.SettingButton</t>
-  </si>
-  <si>
-    <t>设置</t>
-  </si>
-  <si>
-    <t>Menu.AboutButton</t>
-  </si>
-  <si>
-    <t>关于</t>
-  </si>
-  <si>
-    <t>Menu.QuitButton</t>
-  </si>
-  <si>
-    <t>退出</t>
-  </si>
-  <si>
-    <t>AskQuitGame.Title</t>
-  </si>
-  <si>
-    <t>确认退出</t>
-  </si>
-  <si>
-    <t>AskQuitGame.Message</t>
-  </si>
-  <si>
-    <t>是否确认退出游戏？</t>
-  </si>
-  <si>
-    <t>Setting.Title</t>
-  </si>
-  <si>
-    <t>Setting.Music</t>
-  </si>
-  <si>
-    <t>音乐</t>
-  </si>
-  <si>
-    <t>Setting.Sound</t>
-  </si>
-  <si>
-    <t>音效</t>
-  </si>
-  <si>
-    <t>Setting.UISound</t>
-  </si>
-  <si>
-    <t>界面音效</t>
-  </si>
-  <si>
-    <t>Setting.Language</t>
-  </si>
-  <si>
-    <t>语言</t>
-  </si>
-  <si>
-    <t>Setting.LanguageTips</t>
-  </si>
-  <si>
-    <t>更改语言需要重启游戏</t>
-  </si>
-  <si>
-    <t>UpdateResource.Tips</t>
+    <t>Game.Language</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{0}/{1}, {2}/{3}, {4:P0}, {5}/s</t>
+    <t>中文简体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -471,115 +396,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
